--- a/Reports/1/日本語.xlsx
+++ b/Reports/1/日本語.xlsx
@@ -102,13 +102,13 @@
     <t>10/19/21 02:42:22</t>
   </si>
   <si>
-    <t>b38da37c172f2508984402b0ce02706001658482</t>
+    <t>da2a6915d25e7e8848caf923ffd7f14ef3a43136</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">5
+    <t xml:space="preserve">20
 </t>
   </si>
   <si>
